--- a/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA5B693-790D-4F90-A53A-3659C5A90414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54D4F817-0B65-43EE-A01B-8775E6A9A7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>6.09</v>
+        <v>5.8299999237060547</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>4820.6929923600001</v>
+        <v>4614.883378927605</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2233,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.1000000000000001</v>
+        <v>1.0904093186060588</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.99221752084931814</v>
+        <v>0.9582112798045872</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-8.4159009960388428E-2</v>
+        <v>-8.7145753739257883E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>2.8574712643678168E-2</v>
+        <v>2.9588808998443482E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6845,7 +6845,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>0.89129256630933995</v>
+        <v>0.88352156355273881</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -8481,11 +8481,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>-4385997.2925405409</v>
+        <v>-4347756.6537883179</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>-5.5408472503650339</v>
+        <v>-5.4925377043370824</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8494,11 +8494,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>9469.1660800000009</v>
+        <v>9386.6063027821874</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>1.1962433931924931E-2</v>
+        <v>1.1858135847800239E-2</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8509,11 +8509,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>770857.3949999992</v>
+        <v>764136.44256762788</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>0.97382711219943563</v>
+        <v>0.96533650713953878</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>-3624609.0636205417</v>
+        <v>-3593006.817523472</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
@@ -8564,19 +8564,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1489188.2918927569</v>
+        <v>1476204.3551262743</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>1.8812972972972974</v>
+        <v>1.8648946400376056</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.410972972972973</v>
+        <v>1.3986709800282042</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.3516216216216219</v>
+        <v>2.3311183000470068</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54D4F817-0B65-43EE-A01B-8775E6A9A7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3DF1605-29BB-6445-AD67-59EFF579AE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,21 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -793,14 +804,13 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>C0005</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>CNY</t>
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>C0006</t>
   </si>
 </sst>
 </file>
@@ -808,16 +818,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1279,7 +1289,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1335,8 +1345,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1359,14 +1369,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1391,7 +1401,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1408,7 +1418,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1416,7 +1426,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1463,7 +1473,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1537,7 +1547,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1616,10 +1626,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1630,16 +1640,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1703,7 +1713,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,10 +1722,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1730,7 +1740,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,7 +1754,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1752,13 +1762,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1768,9 +1778,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2097,23 +2107,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2122,7 +2132,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2137,7 +2147,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -2156,7 +2166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
@@ -2174,7 +2184,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2194,7 +2204,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2213,12 +2223,12 @@
         <v>5</v>
       </c>
       <c r="G6" s="198" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>220</v>
       </c>
@@ -2226,22 +2236,22 @@
         <v>71</v>
       </c>
       <c r="D7" s="196" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E7" s="94"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0904093186060588</v>
+        <v>1.0905426343282063</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>218</v>
       </c>
@@ -2249,7 +2259,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2260,12 +2270,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="184">
-        <v>5.2900000000000003E-2</v>
+        <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="177" t="s">
         <v>216</v>
@@ -2274,7 +2284,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2286,8 +2296,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2298,7 +2308,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2309,7 +2319,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2323,7 +2333,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2332,8 +2342,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2348,7 +2358,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2364,7 +2374,7 @@
         <v>-7.1637486242843537E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2380,7 +2390,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2392,7 +2402,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2405,10 +2415,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.9582112798045872</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.95809414121255432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2421,10 +2431,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-8.7145753739257883E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>-8.7156408361236615E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>219</v>
       </c>
@@ -2440,7 +2450,7 @@
         <v>-0.3395324238857797</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2453,11 +2463,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>2.9588808998443482E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.9592426588069504E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2475,7 +2485,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
@@ -2494,900 +2504,900 @@
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3451,7 +3461,7 @@
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3459,7 +3469,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3467,7 +3477,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3484,7 +3494,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3510,13 +3520,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3566,7 +3576,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3594,7 +3604,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3645,7 +3655,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3673,7 +3683,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3724,7 +3734,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3754,7 +3764,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3805,7 +3815,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3833,7 +3843,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3884,7 +3894,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3906,7 +3916,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3928,7 +3938,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3950,7 +3960,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3978,7 +3988,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4006,7 +4016,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4057,7 +4067,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4108,7 +4118,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4159,7 +4169,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4210,7 +4220,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4261,7 +4271,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4312,7 +4322,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4363,7 +4373,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4384,7 +4394,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4405,7 +4415,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4426,7 +4436,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4447,7 +4457,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4468,7 +4478,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4489,7 +4499,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4510,7 +4520,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4561,7 +4571,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4582,7 +4592,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4603,7 +4613,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4624,7 +4634,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4675,7 +4685,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4726,7 +4736,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4744,7 +4754,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4795,7 +4805,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4846,7 +4856,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4897,7 +4907,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4948,7 +4958,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4999,7 +5009,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5050,7 +5060,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5101,7 +5111,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5119,7 +5129,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5170,7 +5180,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5221,7 +5231,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5238,7 +5248,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5288,7 +5298,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5338,7 +5348,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5388,7 +5398,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5438,1260 +5448,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6726,11 +6736,11 @@
   </sheetPr>
   <dimension ref="A2:K103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6739,11 +6749,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6759,7 +6769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6782,7 +6792,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6798,7 +6808,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6813,7 +6823,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6838,14 +6848,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>0.88352156355273881</v>
+        <v>0.88362958474557729</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6861,13 +6871,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6886,7 +6896,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6911,7 +6921,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6936,7 +6946,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6961,7 +6971,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6984,7 +6994,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7007,7 +7017,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7032,7 +7042,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7052,7 +7062,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7072,7 +7082,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7091,7 +7101,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7113,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7137,7 +7147,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7156,7 +7166,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7180,7 +7190,7 @@
         <v>5566723</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7189,7 +7199,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7211,7 +7221,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7240,7 +7250,7 @@
         <v>1.1855095822335628</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7273,7 +7283,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7306,7 +7316,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7335,7 +7345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7347,7 +7357,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7370,7 +7380,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7394,7 +7404,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7416,7 +7426,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7441,7 +7451,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7466,7 +7476,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7489,7 +7499,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7513,7 +7523,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7537,7 +7547,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7556,7 +7566,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7575,7 +7585,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7594,7 +7604,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7613,7 +7623,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7637,7 +7647,7 @@
         <v>189044</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7646,7 +7656,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7665,7 +7675,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7684,7 +7694,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7714,7 +7724,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7744,7 +7754,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7770,7 +7780,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7797,20 +7807,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7827,7 +7837,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7848,7 +7858,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7857,7 +7867,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7868,7 +7878,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7883,7 +7893,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7898,7 +7908,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7912,7 +7922,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7921,7 +7931,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7935,7 +7945,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7956,7 +7966,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7977,7 +7987,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7998,7 +8008,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8013,7 +8023,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8034,7 +8044,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8044,7 +8054,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8058,7 +8068,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8079,7 +8089,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8094,7 +8104,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8115,7 +8125,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8129,7 +8139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8143,7 +8153,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8158,7 +8168,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8179,7 +8189,7 @@
         <v>0.8649634921177769</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8194,7 +8204,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8215,7 +8225,7 @@
         <v>0.13052664506651043</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8230,7 +8240,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8251,7 +8261,7 @@
         <v>2.3437755566327548E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8272,7 +8282,7 @@
         <v>4.7067232344920495E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8296,7 +8306,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8317,7 +8327,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8338,7 +8348,7 @@
         <v>-4.5701145085840549E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8349,7 +8359,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8370,7 +8380,7 @@
         <v>-3.427585881438041E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8385,7 +8395,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8405,11 +8415,11 @@
         <v>-0.3395324238857797</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8419,7 +8429,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8429,12 +8439,12 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C91" s="174" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D91" s="206" t="s">
         <v>172</v>
@@ -8446,7 +8456,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8464,7 +8474,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8475,45 +8485,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>-4347756.6537883179</v>
+        <v>-4348288.21960322</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>-5.4925377043370824</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>-5.4932092334757119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>9386.6063027821874</v>
+        <v>9387.7539288859043</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>1.1858135847800239E-2</v>
+        <v>1.1859585648271399E-2</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>764136.44256762788</v>
+        <v>764229.86748607073</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>0.96533650713953878</v>
+        <v>0.96545453119836577</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8522,13 +8532,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>-3593006.817523472</v>
+        <v>-3593446.106046035</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
@@ -8543,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8558,28 +8568,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1476204.3551262743</v>
+        <v>1476384.8389558624</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>1.8648946400376056</v>
+        <v>1.865122645953754</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.3986709800282042</v>
+        <v>1.3988419844653155</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.3311183000470068</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.3314033074421925</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3DF1605-29BB-6445-AD67-59EFF579AE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E12B43-CE4F-3245-8E6F-23AAF41C9574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>5.8299999237060547</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>4614.883378927605</v>
+        <v>4796.9456909457031</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2243,7 +2243,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0905426343282063</v>
+        <v>1.092014988263448</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2292,7 +2292,7 @@
         <v>0.08</v>
       </c>
       <c r="D12" s="170">
-        <v>9.6250000000000002E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F12" s="125"/>
     </row>
@@ -2302,7 +2302,7 @@
         <v>200</v>
       </c>
       <c r="C14" s="170">
-        <v>2.0799999999999999E-2</v>
+        <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="125" t="s">
         <v>206</v>
@@ -2338,7 +2338,7 @@
         <v>205</v>
       </c>
       <c r="C17" s="194">
-        <v>0.1125</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D17" s="189"/>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.95809414121255432</v>
+        <v>0.99454927469800714</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-8.7156408361236615E-2</v>
+        <v>-8.3961696362792604E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>2.9592426588069504E-2</v>
+        <v>2.8507718279620824E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6855,7 +6855,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>0.88362958474557729</v>
+        <v>0.8848225830341746</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="C92" s="176">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.1125</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D92" s="206" t="s">
         <v>168</v>
@@ -8491,11 +8491,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>-4348288.21960322</v>
+        <v>-5922936.7289998457</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>-5.4932092334757119</v>
+        <v>-7.482468752267593</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8504,11 +8504,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>9387.7539288859043</v>
+        <v>9400.428441559854</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>1.1859585648271399E-2</v>
+        <v>1.1875597408884797E-2</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8519,11 +8519,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>764229.86748607073</v>
+        <v>765261.66286701476</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>0.96545453119836577</v>
+        <v>0.96675800227190389</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>-3593446.106046035</v>
+        <v>-5167075.4945743904</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
@@ -8574,19 +8574,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1476384.8389558624</v>
+        <v>2011029.0641194291</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>1.865122645953754</v>
+        <v>2.5405407521070216</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.3988419844653155</v>
+        <v>1.9054055640802661</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.3314033074421925</v>
+        <v>3.1756759401337771</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E12B43-CE4F-3245-8E6F-23AAF41C9574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80F82161-921B-433E-8F9A-15675B72DC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -818,16 +807,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1289,7 +1278,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1345,8 +1334,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1369,14 +1358,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1401,7 +1390,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1418,7 +1407,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1426,7 +1415,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1473,7 +1462,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1547,7 +1536,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1626,10 +1615,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,16 +1629,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1713,7 +1702,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1722,10 +1711,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1740,7 +1729,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1754,7 +1743,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1762,13 +1751,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1778,9 +1767,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2111,19 +2100,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2132,7 +2121,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2147,7 +2136,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -2160,13 +2149,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>6.059999942779541</v>
+        <v>6.1500000953674316</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
@@ -2184,7 +2173,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2198,13 +2187,13 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>4796.9456909457031</v>
+        <v>4868.1875800904945</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2228,7 +2217,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>220</v>
       </c>
@@ -2243,15 +2232,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.092014988263448</v>
+        <v>1.0876400073369343</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>218</v>
       </c>
@@ -2259,7 +2248,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2270,7 +2259,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
@@ -2284,7 +2273,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2296,8 +2285,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2308,7 +2297,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2319,7 +2308,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2333,7 +2322,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2342,8 +2331,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2358,7 +2347,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2374,7 +2363,7 @@
         <v>-7.1637486242843537E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2390,7 +2379,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2402,7 +2391,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2415,10 +2404,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.99454927469800714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0133797753629894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2431,10 +2420,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-8.3961696362792604E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-8.2401530255642605E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>219</v>
       </c>
@@ -2450,7 +2439,7 @@
         <v>-0.3395324238857797</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2463,11 +2452,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>2.8507718279620824E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.7977991299595748E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2485,7 +2474,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
@@ -2504,900 +2493,900 @@
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3461,7 +3450,7 @@
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3469,7 +3458,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3477,7 +3466,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3494,7 +3483,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3520,13 +3509,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3576,7 +3565,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3604,7 +3593,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3655,7 +3644,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3683,7 +3672,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3734,7 +3723,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3764,7 +3753,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3815,7 +3804,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3843,7 +3832,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3894,7 +3883,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3916,7 +3905,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3938,7 +3927,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3960,7 +3949,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3988,7 +3977,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4016,7 +4005,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4067,7 +4056,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4118,7 +4107,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4169,7 +4158,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4220,7 +4209,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4271,7 +4260,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4322,7 +4311,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4373,7 +4362,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4394,7 +4383,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4415,7 +4404,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4436,7 +4425,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4457,7 +4446,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4478,7 +4467,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4499,7 +4488,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4520,7 +4509,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4571,7 +4560,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4592,7 +4581,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4613,7 +4602,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4634,7 +4623,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4685,7 +4674,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4736,7 +4725,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4754,7 +4743,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4805,7 +4794,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4856,7 +4845,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4907,7 +4896,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4958,7 +4947,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5009,7 +4998,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5060,7 +5049,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5111,7 +5100,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5129,7 +5118,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5180,7 +5169,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5231,7 +5220,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5248,7 +5237,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5298,7 +5287,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5348,7 +5337,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5398,7 +5387,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5448,1260 +5437,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6740,7 +6729,7 @@
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6749,11 +6738,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6769,7 +6758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6792,7 +6781,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6808,7 +6797,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6823,18 +6812,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>641386.44999999925</v>
+        <v>640591.78500186524</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.85478553358047948</v>
+        <v>0.85496545140332458</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6848,14 +6837,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>0.8848225830341746</v>
+        <v>0.88018579942709851</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6871,13 +6860,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6896,7 +6885,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6921,7 +6910,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6946,7 +6935,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6971,7 +6960,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6994,7 +6983,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7017,7 +7006,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7042,7 +7031,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7062,7 +7051,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7082,7 +7071,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7101,7 +7090,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7123,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7147,7 +7136,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7166,7 +7155,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7190,7 +7179,7 @@
         <v>5566723</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7199,7 +7188,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7221,7 +7210,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7250,7 +7239,7 @@
         <v>1.1855095822335628</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7283,7 +7272,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7316,7 +7305,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7345,7 +7334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7357,7 +7346,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7380,7 +7369,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7404,7 +7393,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7426,7 +7415,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7451,7 +7440,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7476,7 +7465,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7499,7 +7488,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7523,7 +7512,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7547,7 +7536,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7566,7 +7555,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7585,7 +7574,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7604,7 +7593,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7623,7 +7612,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7647,7 +7636,7 @@
         <v>189044</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7656,7 +7645,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7675,7 +7664,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7694,7 +7683,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7724,7 +7713,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7754,7 +7743,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7780,7 +7769,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7807,27 +7796,27 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
       <c r="C52" s="94"/>
       <c r="D52" s="81" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="94"/>
       <c r="F52" s="94"/>
@@ -7837,7 +7826,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7847,18 +7836,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
+        <v>1.0133797753629894</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>59393</v>
+        <v>60187.664998134031</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7867,7 +7856,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7878,7 +7867,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7893,7 +7882,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7908,7 +7897,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7922,7 +7911,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7931,7 +7920,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7945,7 +7934,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7966,7 +7955,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7987,7 +7976,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8008,7 +7997,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8023,7 +8012,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8044,7 +8033,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8054,7 +8043,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8068,7 +8057,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8089,7 +8078,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8104,7 +8093,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8125,7 +8114,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8139,7 +8128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8153,7 +8142,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8168,7 +8157,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8189,7 +8178,7 @@
         <v>0.8649634921177769</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8204,7 +8193,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8225,7 +8214,7 @@
         <v>0.13052664506651043</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8240,7 +8229,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8261,7 +8250,7 @@
         <v>2.3437755566327548E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8282,7 +8271,7 @@
         <v>4.7067232344920495E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8306,7 +8295,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8327,7 +8316,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8348,7 +8337,7 @@
         <v>-4.5701145085840549E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8359,7 +8348,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8380,7 +8369,7 @@
         <v>-3.427585881438041E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8395,7 +8384,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8415,11 +8404,11 @@
         <v>-0.3395324238857797</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8429,7 +8418,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8439,7 +8428,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8456,7 +8445,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8474,7 +8463,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8485,45 +8474,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>-5922936.7289998457</v>
+        <v>-5899207.4436907414</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>-7.482468752267593</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-7.4524914548621224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>9400.428441559854</v>
+        <v>9362.7671497507727</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>1.1875597408884797E-2</v>
+        <v>1.1828019754078569E-2</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>765261.66286701476</v>
+        <v>762195.76613957202</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>0.96675800227190389</v>
+        <v>0.96288484314318168</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8532,13 +8521,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>-5167075.4945743904</v>
+        <v>-5146374.444700921</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
@@ -8553,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8568,28 +8557,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>2011029.0641194291</v>
+        <v>2002972.2023613516</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>2.5405407521070216</v>
+        <v>2.5303624876573969</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.9054055640802661</v>
+        <v>1.8977718657430476</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>3.1756759401337771</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.1629531095717462</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80F82161-921B-433E-8F9A-15675B72DC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3474E1EB-315D-8D41-B620-3C42B17C4ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="740" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -807,16 +818,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1278,7 +1289,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1334,8 +1345,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1358,14 +1369,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1390,7 +1401,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1407,7 +1418,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1415,7 +1426,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1462,7 +1473,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1536,7 +1547,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1615,10 +1626,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,16 +1640,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1702,7 +1713,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1711,10 +1722,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1729,7 +1740,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1743,7 +1754,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1751,13 +1762,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1767,9 +1778,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2100,19 +2111,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2121,7 +2132,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2136,7 +2147,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -2149,13 +2160,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>6.1500000953674316</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
@@ -2173,7 +2184,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2187,13 +2198,13 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>4868.1875800904945</v>
+        <v>4852.3560911085933</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2217,7 +2228,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>220</v>
       </c>
@@ -2232,15 +2243,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0876400073369343</v>
+        <v>1.0866400003433228</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>218</v>
       </c>
@@ -2248,7 +2259,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2259,7 +2270,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
@@ -2273,7 +2284,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2285,8 +2296,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2297,7 +2308,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2308,7 +2319,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2322,7 +2333,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2331,8 +2342,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2347,7 +2358,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2363,7 +2374,7 @@
         <v>-7.1637486242843537E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2379,7 +2390,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2391,7 +2402,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2404,10 +2415,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>1.0133797753629894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.0110137892528901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2420,10 +2431,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-8.2401530255642605E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>-8.2594367265491769E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>219</v>
       </c>
@@ -2439,7 +2450,7 @@
         <v>-0.3395324238857797</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2452,11 +2463,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>2.7977991299595748E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.8043465716964713E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2474,7 +2485,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
@@ -2493,900 +2504,900 @@
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3450,7 +3461,7 @@
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3458,7 +3469,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3466,7 +3477,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3483,7 +3494,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3509,13 +3520,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3565,7 +3576,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3593,7 +3604,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3644,7 +3655,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3672,7 +3683,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3723,7 +3734,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3753,7 +3764,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3804,7 +3815,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3832,7 +3843,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3883,7 +3894,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3905,7 +3916,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3927,7 +3938,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3949,7 +3960,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3977,7 +3988,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4005,7 +4016,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4056,7 +4067,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4107,7 +4118,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4158,7 +4169,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4209,7 +4220,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4260,7 +4271,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4311,7 +4322,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4362,7 +4373,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4383,7 +4394,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4404,7 +4415,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4425,7 +4436,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4446,7 +4457,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4467,7 +4478,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4488,7 +4499,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4509,7 +4520,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4560,7 +4571,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4581,7 +4592,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4602,7 +4613,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4623,7 +4634,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4674,7 +4685,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4725,7 +4736,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4743,7 +4754,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4794,7 +4805,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4845,7 +4856,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4896,7 +4907,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4947,7 +4958,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4998,7 +5009,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5049,7 +5060,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5100,7 +5111,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5118,7 +5129,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5169,7 +5180,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5220,7 +5231,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5237,7 +5248,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5287,7 +5298,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5337,7 +5348,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5387,7 +5398,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5437,1260 +5448,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6729,7 +6740,7 @@
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6738,11 +6749,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6758,7 +6769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6781,7 +6792,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6797,7 +6808,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6812,18 +6823,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>640591.78500186524</v>
+        <v>640732.3080149024</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.85496545140332458</v>
+        <v>0.85493363599101291</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6837,14 +6848,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>0.88018579942709851</v>
+        <v>0.87956943557985867</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6860,13 +6871,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6885,7 +6896,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6910,7 +6921,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6935,7 +6946,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6960,7 +6971,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6983,7 +6994,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7006,7 +7017,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7031,7 +7042,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7051,7 +7062,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7071,7 +7082,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7090,7 +7101,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7112,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7136,7 +7147,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7155,7 +7166,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7179,7 +7190,7 @@
         <v>5566723</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7188,7 +7199,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7210,7 +7221,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7239,7 +7250,7 @@
         <v>1.1855095822335628</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7272,7 +7283,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7305,7 +7316,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7334,7 +7345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7346,7 +7357,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7369,7 +7380,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7393,7 +7404,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7415,7 +7426,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7440,7 +7451,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7465,7 +7476,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7488,7 +7499,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7512,7 +7523,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7536,7 +7547,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7555,7 +7566,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7574,7 +7585,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7593,7 +7604,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7612,7 +7623,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7636,7 +7647,7 @@
         <v>189044</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7645,7 +7656,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7664,7 +7675,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7683,7 +7694,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7713,7 +7724,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7743,7 +7754,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7769,7 +7780,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7796,20 +7807,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7826,7 +7837,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7836,18 +7847,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0133797753629894</v>
+        <v>1.0110137892528901</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>60187.664998134031</v>
+        <v>60047.141985096903</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7856,7 +7867,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7867,7 +7878,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7882,7 +7893,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7897,7 +7908,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7911,7 +7922,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7920,7 +7931,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7934,7 +7945,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7955,7 +7966,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7976,7 +7987,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7997,7 +8008,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8012,7 +8023,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8033,7 +8044,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8043,7 +8054,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8057,7 +8068,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8078,7 +8089,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8093,7 +8104,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8114,7 +8125,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8128,7 +8139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8142,7 +8153,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8157,7 +8168,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8178,7 +8189,7 @@
         <v>0.8649634921177769</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8193,7 +8204,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8214,7 +8225,7 @@
         <v>0.13052664506651043</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8229,7 +8240,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8250,7 +8261,7 @@
         <v>2.3437755566327548E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8271,7 +8282,7 @@
         <v>4.7067232344920495E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8295,7 +8306,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8316,7 +8327,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8337,7 +8348,7 @@
         <v>-4.5701145085840549E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8348,7 +8359,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8369,7 +8380,7 @@
         <v>-3.427585881438041E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8384,7 +8395,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8404,11 +8415,11 @@
         <v>-0.3395324238857797</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8418,7 +8429,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8428,7 +8439,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8445,7 +8456,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8463,7 +8474,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8474,45 +8485,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>-5899207.4436907414</v>
+        <v>-5893783.5454701344</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>-7.4524914548621224</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>-7.4456394233770551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>9362.7671497507727</v>
+        <v>9354.1587567474362</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>1.1828019754078569E-2</v>
+        <v>1.1817144738085348E-2</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>762195.76613957202</v>
+        <v>761494.98178859276</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>0.96288484314318168</v>
+        <v>0.96199953957702899</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8521,13 +8532,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>-5146374.444700921</v>
+        <v>-5141642.7224382898</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
@@ -8542,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8557,28 +8568,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>2002972.2023613516</v>
+        <v>2001130.6130515991</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>2.5303624876573969</v>
+        <v>2.5280360007987301</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.8977718657430476</v>
+        <v>1.8960270005990476</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>3.1629531095717462</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.1600450009984127</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3474E1EB-315D-8D41-B620-3C42B17C4ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D83614-C0F1-48B8-8C0D-49665ED6024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="740" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -818,16 +807,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1289,7 +1278,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1345,8 +1334,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1369,14 +1358,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1401,7 +1390,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1418,7 +1407,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1426,7 +1415,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1473,7 +1462,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1547,7 +1536,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1626,10 +1615,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,16 +1629,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1713,7 +1702,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1722,10 +1711,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1740,7 +1729,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1754,7 +1743,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1762,13 +1751,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1778,9 +1767,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2111,19 +2100,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2132,7 +2121,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2147,7 +2136,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -2166,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
@@ -2184,7 +2173,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2204,7 +2193,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2228,7 +2217,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>220</v>
       </c>
@@ -2243,15 +2232,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0866400003433228</v>
+        <v>1.0845636924107869</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>218</v>
       </c>
@@ -2259,7 +2248,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2270,7 +2259,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
@@ -2284,7 +2273,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2296,8 +2285,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2308,7 +2297,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2319,7 +2308,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2333,7 +2322,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2342,8 +2331,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2358,7 +2347,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2374,7 +2363,7 @@
         <v>-7.1637486242843537E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2390,7 +2379,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2402,7 +2391,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2415,10 +2404,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>1.0110137892528901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0129492919487832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2431,10 +2420,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-8.2594367265491769E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-8.2436549276201893E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>219</v>
       </c>
@@ -2450,7 +2439,7 @@
         <v>-0.3395324238857797</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2463,11 +2452,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>2.8043465716964713E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.7989881392528348E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2485,7 +2474,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
@@ -2504,900 +2493,900 @@
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3461,7 +3450,7 @@
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3469,7 +3458,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3477,7 +3466,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3494,7 +3483,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3520,13 +3509,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3576,7 +3565,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3604,7 +3593,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3655,7 +3644,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3683,7 +3672,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3734,7 +3723,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3764,7 +3753,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3815,7 +3804,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3843,7 +3832,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3894,7 +3883,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3916,7 +3905,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3938,7 +3927,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3960,7 +3949,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3988,7 +3977,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4016,7 +4005,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4067,7 +4056,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4118,7 +4107,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4169,7 +4158,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4220,7 +4209,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4271,7 +4260,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4322,7 +4311,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4373,7 +4362,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4394,7 +4383,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4415,7 +4404,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4436,7 +4425,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4457,7 +4446,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4478,7 +4467,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4499,7 +4488,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4520,7 +4509,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4571,7 +4560,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4592,7 +4581,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4613,7 +4602,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4634,7 +4623,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4685,7 +4674,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4736,7 +4725,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4754,7 +4743,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4805,7 +4794,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4856,7 +4845,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4907,7 +4896,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4958,7 +4947,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5009,7 +4998,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5060,7 +5049,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5111,7 +5100,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5129,7 +5118,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5180,7 +5169,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5231,7 +5220,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5248,7 +5237,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5298,7 +5287,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5348,7 +5337,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5398,7 +5387,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5448,1260 +5437,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6740,7 +6729,7 @@
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6749,11 +6738,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6769,7 +6758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6792,7 +6781,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6808,7 +6797,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6823,18 +6812,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>640732.3080149024</v>
+        <v>640617.35270328517</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.85493363599101291</v>
+        <v>0.8549596626933833</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6848,14 +6837,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>0.87956943557985867</v>
+        <v>0.87773128561806024</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6871,13 +6860,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6896,7 +6885,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6921,7 +6910,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6946,7 +6935,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6971,7 +6960,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6994,7 +6983,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7017,7 +7006,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7042,7 +7031,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7062,7 +7051,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7082,7 +7071,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7101,7 +7090,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7123,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7147,7 +7136,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7166,7 +7155,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7190,7 +7179,7 @@
         <v>5566723</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7199,7 +7188,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7221,7 +7210,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7250,7 +7239,7 @@
         <v>1.1855095822335628</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7283,7 +7272,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7316,7 +7305,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7345,7 +7334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7357,7 +7346,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7380,7 +7369,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7404,7 +7393,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7426,7 +7415,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7451,7 +7440,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7476,7 +7465,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7499,7 +7488,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7523,7 +7512,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7547,7 +7536,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7566,7 +7555,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7585,7 +7574,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7604,7 +7593,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7623,7 +7612,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7647,7 +7636,7 @@
         <v>189044</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7656,7 +7645,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7675,7 +7664,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7694,7 +7683,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7724,7 +7713,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7754,7 +7743,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7780,7 +7769,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7807,20 +7796,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7837,7 +7826,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7847,18 +7836,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0110137892528901</v>
+        <v>1.0129492919487832</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>60047.141985096903</v>
+        <v>60162.097296714084</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7867,7 +7856,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7878,7 +7867,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7893,7 +7882,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7908,7 +7897,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7922,7 +7911,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7931,7 +7920,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7945,7 +7934,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7966,7 +7955,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7987,7 +7976,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8008,7 +7997,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8023,7 +8012,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8044,7 +8033,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8054,7 +8043,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8068,7 +8057,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8089,7 +8078,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8104,7 +8093,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8125,7 +8114,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8139,7 +8128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8153,7 +8142,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8168,7 +8157,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8189,7 +8178,7 @@
         <v>0.8649634921177769</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8204,7 +8193,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8225,7 +8214,7 @@
         <v>0.13052664506651043</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8240,7 +8229,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8261,7 +8250,7 @@
         <v>2.3437755566327548E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8282,7 +8271,7 @@
         <v>4.7067232344920495E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8306,7 +8295,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8327,7 +8316,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8348,7 +8337,7 @@
         <v>-4.5701145085840549E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8359,7 +8348,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8380,7 +8369,7 @@
         <v>-3.427585881438041E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8395,7 +8384,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8415,11 +8404,11 @@
         <v>-0.3395324238857797</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8429,7 +8418,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8439,7 +8428,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8456,7 +8445,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8474,7 +8463,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8485,45 +8474,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>-5893783.5454701344</v>
+        <v>-5882521.9413287053</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>-7.4456394233770551</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-7.4314125955475294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>9354.1587567474362</v>
+        <v>9336.2852070688878</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>1.1817144738085348E-2</v>
+        <v>1.1794565014025994E-2</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>761494.98178859276</v>
+        <v>760039.94785759959</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>0.96199953957702899</v>
+        <v>0.96016138961523056</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8532,13 +8521,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>-5141642.7224382898</v>
+        <v>-5131818.2786781741</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
@@ -8553,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8568,28 +8557,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>2001130.6130515991</v>
+        <v>1997306.9333006174</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>2.5280360007987301</v>
+        <v>2.5232055314615658</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.8960270005990476</v>
+        <v>1.8924041485961745</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>3.1600450009984127</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.1540069143269571</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D83614-C0F1-48B8-8C0D-49665ED6024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9472E62C-6540-4DF2-AB3E-E8EF038791E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>6.130000114440918</v>
+        <v>6.2399997711181641</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>4852.3560911085933</v>
+        <v>4939.4290917828139</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2232,7 +2232,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0845636924107869</v>
+        <v>1.0842636823654175</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>1.0129492919487832</v>
+        <v>1.031411446141395</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-8.2436549276201893E-2</v>
+        <v>-8.096094389142762E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>2.7989881392528348E-2</v>
+        <v>2.7488865519537026E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6819,11 +6819,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>640617.35270328517</v>
+        <v>639520.82997932343</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.8549596626933833</v>
+        <v>0.85520792325809747</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6844,7 +6844,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>0.87773128561806024</v>
+        <v>0.87598652226449647</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -7836,11 +7836,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0129492919487832</v>
+        <v>1.031411446141395</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>60162.097296714084</v>
+        <v>61258.620020675873</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
@@ -8480,11 +8480,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>-5882521.9413287053</v>
+        <v>-5880894.7287575537</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>-7.4314125955475294</v>
+        <v>-7.4293569316473356</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8493,11 +8493,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>9336.2852070688878</v>
+        <v>9333.7026207550043</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>1.1794565014025994E-2</v>
+        <v>1.1791302422801768E-2</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8508,11 +8508,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>760039.94785759959</v>
+        <v>759829.7069830111</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>0.96016138961523056</v>
+        <v>0.9598957915096733</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>-5131818.2786781741</v>
+        <v>-5130398.7243952975</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
@@ -8563,19 +8563,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1997306.9333006174</v>
+        <v>1996754.4418721572</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>2.5232055314615658</v>
+        <v>2.5225075669148387</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.8924041485961745</v>
+        <v>1.891880675186129</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>3.1540069143269571</v>
+        <v>3.1531344586435486</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F4E1B1-C9D1-4D5B-9A16-5EB2D736CA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F1520C-1EB1-41A5-85FF-EE91630485BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>6.2399997711181596</v>
+        <v>5.9000000953674316</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>4939.4290917828102</v>
+        <v>4670.2937790904944</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2511,7 +2511,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.08</v>
+        <v>1.0790773232777913</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2560,7 +2560,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
@@ -2606,7 +2606,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0354833079880632</v>
+        <v>0.97989995308635658</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-8.0185493635063901E-2</v>
+        <v>-8.4733895476137883E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7380770235089918E-2</v>
+        <v>2.8933903353083816E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2757,20 +2757,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.2153691522923358</v>
+        <v>1.3594859831663286</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.0796423196146012</v>
+        <v>2.4143488530877959</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.6637138556916811</v>
+        <v>1.9314790824702368</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.6637138556916811</v>
+        <v>1.9314790824702368</v>
       </c>
       <c r="H29" s="243"/>
     </row>
@@ -8817,11 +8817,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-169446.17892024227</v>
+        <v>-167027.30349979838</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0383638233372869</v>
+        <v>1.0378161726915411</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9888,7 +9888,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -9908,11 +9908,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0354833079880632</v>
+        <v>1</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>61500.460111335036</v>
+        <v>59393</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10581,17 +10581,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0185493635063901E-2</v>
+        <v>-8.4733895476137883E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0185493635063901E-2</v>
+        <v>-8.4733895476137883E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0185493635063901E-2</v>
+        <v>-8.4733895476137883E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10632,17 +10632,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7380770235089918E-2</v>
+        <v>2.8933903353083816E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7380770235089918E-2</v>
+        <v>2.8933903353083816E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7380770235089918E-2</v>
+        <v>2.8933903353083816E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
@@ -10700,14 +10700,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-3.8130097088221562</v>
+        <v>-4.1329583160344558</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>228</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-3.8130097088221562</v>
+        <v>-4.1329583160344558</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10725,14 +10725,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>2.2634643332675655</v>
+        <v>2.5340277703557739</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>2.2634643332675655</v>
+        <v>2.5340277703557739</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10772,19 +10772,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2218528.7987304782</v>
+        <v>-2493629.0335661187</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-2.0473988961883132</v>
+        <v>-2.2172996544827521</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-2.8026759649869963</v>
+        <v>-3.1502111498254037</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-2.8026759649869963</v>
+        <v>-3.1502111498254037</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10795,13 +10795,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>66420.496920241843</v>
+        <v>64089.639461437859</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.3909269245176915E-2</v>
+        <v>8.0964688051847894E-2</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10812,16 +10812,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-103025.68200000041</v>
+        <v>-102937.66403836051</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-0.14967565141163827</v>
+        <v>-0.14954777896771329</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.13015274035794633</v>
+        <v>-0.13004154692844636</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-2387974.9776507206</v>
+        <v>-2660656.337065917</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
@@ -10886,23 +10886,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1316954.634716769</v>
+        <v>1528910.9487281106</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.2153691522923358</v>
+        <v>1.3594859831663286</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.6637138556916811</v>
+        <v>1.9314790824702368</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.6637138556916811</v>
+        <v>1.9314790824702368</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>2.0796423196146012</v>
+        <v>2.4143488530877959</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10940,23 +10940,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>658477.31735838449</v>
+        <v>764455.47436405532</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.60768457614616789</v>
+        <v>0.67974299158316431</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>0.83185692784584053</v>
+        <v>0.9657395412351184</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>0.83185692784584053</v>
+        <v>0.9657395412351184</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.0398211598073006</v>
+        <v>1.2071744265438979</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F1520C-1EB1-41A5-85FF-EE91630485BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9301D016-3502-48EB-87C5-990D9A527D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>5.9000000953674316</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>4670.2937790904944</v>
+        <v>4448.6525558914072</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2511,7 +2511,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0790773232777913</v>
+        <v>1.0758796532948811</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.97989995308635658</v>
+        <v>0.93617038092822202</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-8.4733895476137883E-2</v>
+        <v>-8.8691911102299542E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8933903353083816E-2</v>
+        <v>3.0285438543975727E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2757,20 +2757,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.3594859831663286</v>
+        <v>1.3643829522438584</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.4143488530877959</v>
+        <v>2.4230455162548594</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9314790824702368</v>
+        <v>1.9384364130038874</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.9314790824702368</v>
+        <v>1.9384364130038874</v>
       </c>
       <c r="H29" s="243"/>
     </row>
@@ -8817,11 +8817,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-167027.30349979838</v>
+        <v>-166532.34527650315</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0378161726915411</v>
+        <v>1.0377041106199216</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10581,17 +10581,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4733895476137883E-2</v>
+        <v>-8.8691911102299542E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4733895476137883E-2</v>
+        <v>-8.8691911102299542E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4733895476137883E-2</v>
+        <v>-8.8691911102299542E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10632,17 +10632,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8933903353083816E-2</v>
+        <v>3.0285438543975727E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8933903353083816E-2</v>
+        <v>3.0285438543975727E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8933903353083816E-2</v>
+        <v>3.0285438543975727E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10700,14 +10700,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-4.1329583160344558</v>
+        <v>-4.0443641746702346</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>228</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-4.1329583160344558</v>
+        <v>-4.0443641746702346</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10725,14 +10725,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>2.5340277703557739</v>
+        <v>2.5507141519907486</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>2.5340277703557739</v>
+        <v>2.5507141519907486</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10772,19 +10772,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2493629.0335661187</v>
+        <v>-2432944.5102327238</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-2.2172996544827521</v>
+        <v>-2.1633398349553223</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-3.1502111498254037</v>
+        <v>-3.073548158075861</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-3.1502111498254037</v>
+        <v>-3.073548158075861</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10795,13 +10795,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>64089.639461437859</v>
+        <v>63899.720248142876</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.0964688051847894E-2</v>
+        <v>8.0724762379169826E-2</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10812,16 +10812,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-102937.66403836051</v>
+        <v>-102632.62502836029</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-0.14954777896771329</v>
+        <v>-0.14910461846985082</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.13004154692844636</v>
+        <v>-0.12965618997378334</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-2660656.337065917</v>
+        <v>-2599476.8555092267</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
@@ -10886,23 +10886,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1528910.9487281106</v>
+        <v>1534418.1990645805</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.3594859831663286</v>
+        <v>1.3643829522438584</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.9314790824702368</v>
+        <v>1.9384364130038874</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.9314790824702368</v>
+        <v>1.9384364130038874</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>2.4143488530877959</v>
+        <v>2.4230455162548594</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10940,23 +10940,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>764455.47436405532</v>
+        <v>767209.09953229025</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.67974299158316431</v>
+        <v>0.68219147612192921</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>0.9657395412351184</v>
+        <v>0.96921820650194368</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>0.9657395412351184</v>
+        <v>0.96921820650194368</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.2071744265438979</v>
+        <v>1.2115227581274297</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9301D016-3502-48EB-87C5-990D9A527D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CABC1369-8389-4E90-BBD4-40CB38E45318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>5.619999885559082</v>
+        <v>5.6500000953674316</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>4448.6525558914072</v>
+        <v>4472.3999780904942</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2511,7 +2511,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0758796532948811</v>
+        <v>1.0742770036061604</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.93617038092822202</v>
+        <v>0.94257183873707617</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-8.8691911102299542E-2</v>
+        <v>-8.8089561760239063E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.0285438543975727E-2</v>
+        <v>3.0079755593250542E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2757,20 +2757,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.3643829522438584</v>
+        <v>1.3609912087762994</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.4230455162548594</v>
+        <v>2.4170220249851679</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9384364130038874</v>
+        <v>1.9336176199881345</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.9384364130038874</v>
+        <v>1.9336176199881345</v>
       </c>
       <c r="H29" s="243"/>
     </row>
@@ -8817,11 +8817,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-166532.34527650315</v>
+        <v>-166284.27569873768</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0377041106199216</v>
+        <v>1.0376479458983716</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10581,17 +10581,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.8691911102299542E-2</v>
+        <v>-8.8089561760239063E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.8691911102299542E-2</v>
+        <v>-8.8089561760239063E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.8691911102299542E-2</v>
+        <v>-8.8089561760239063E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10632,17 +10632,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0285438543975727E-2</v>
+        <v>3.0079755593250542E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0285438543975727E-2</v>
+        <v>3.0079755593250542E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0285438543975727E-2</v>
+        <v>3.0079755593250542E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10700,14 +10700,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-4.0443641746702346</v>
+        <v>-4.0577479176336446</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>228</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-4.0443641746702346</v>
+        <v>-4.0577479176336446</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10725,14 +10725,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>2.5507141519907486</v>
+        <v>2.5481690855407084</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>2.5507141519907486</v>
+        <v>2.5481690855407084</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10772,19 +10772,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2432944.5102327238</v>
+        <v>-2437359.5391375828</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-2.1633398349553223</v>
+        <v>-2.1672656161896207</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-3.073548158075861</v>
+        <v>-3.0791256810737377</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-3.073548158075861</v>
+        <v>-3.0791256810737377</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10795,13 +10795,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>63899.720248142876</v>
+        <v>63804.534075180687</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.0724762379169826E-2</v>
+        <v>8.0604513320733942E-2</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10812,16 +10812,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-102632.62502836029</v>
+        <v>-102479.74162355701</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-0.14910461846985082</v>
+        <v>-0.14888250954749532</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.12965618997378334</v>
+        <v>-0.12946305178043072</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-2599476.8555092267</v>
+        <v>-2603643.8148363205</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
@@ -10886,23 +10886,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1534418.1990645805</v>
+        <v>1530603.7620001021</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.3643829522438584</v>
+        <v>1.3609912087762994</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.9384364130038874</v>
+        <v>1.9336176199881345</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.9384364130038874</v>
+        <v>1.9336176199881345</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>2.4230455162548594</v>
+        <v>2.4170220249851679</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10940,23 +10940,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>767209.09953229025</v>
+        <v>765301.88100005104</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.68219147612192921</v>
+        <v>0.68049560438814971</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>0.96921820650194368</v>
+        <v>0.96680880999406726</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>0.96921820650194368</v>
+        <v>0.96680880999406726</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.2115227581274297</v>
+        <v>1.208511012492584</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CABC1369-8389-4E90-BBD4-40CB38E45318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0837CBB2-6D62-744D-944C-0B2098E58A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -892,18 +903,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1370,7 +1381,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="258">
@@ -1426,8 +1437,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1450,14 +1461,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1487,7 +1498,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1592,7 +1603,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1620,7 +1631,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1676,13 +1687,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1724,7 +1735,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1757,16 +1768,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1787,7 +1798,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1812,10 +1823,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1824,10 +1835,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1844,13 +1855,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1862,13 +1873,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1906,7 +1917,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1915,10 +1926,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1952,7 +1963,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1966,7 +1977,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1979,20 +1990,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2371,19 +2382,19 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -2392,7 +2403,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2407,7 +2418,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
@@ -2421,13 +2432,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>5.6500000953674316</v>
+        <v>5.3600001335144043</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
@@ -2447,7 +2458,7 @@
       <c r="H4" s="252"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
@@ -2462,13 +2473,13 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>4472.3999780904942</v>
+        <v>4242.8431991266916</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -2494,7 +2505,7 @@
       <c r="H6" s="245"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>209</v>
       </c>
@@ -2511,15 +2522,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0742770036061604</v>
+        <v>1.074550986289978</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>207</v>
       </c>
@@ -2527,7 +2538,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2538,7 +2549,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="123" t="s">
         <v>194</v>
       </c>
@@ -2552,7 +2563,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>142</v>
       </c>
@@ -2564,8 +2575,8 @@
       </c>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2576,7 +2587,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2587,7 +2598,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="123" t="s">
         <v>203</v>
       </c>
@@ -2601,7 +2612,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>196</v>
       </c>
@@ -2610,8 +2621,8 @@
       </c>
       <c r="D17" s="182"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="143" t="s">
         <v>199</v>
       </c>
@@ -2626,7 +2637,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="138" t="s">
         <v>181</v>
       </c>
@@ -2638,10 +2649,10 @@
         <v>230</v>
       </c>
       <c r="G20" s="178">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="138" t="s">
         <v>182</v>
       </c>
@@ -2652,7 +2663,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="138" t="s">
         <v>183</v>
       </c>
@@ -2664,7 +2675,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="138" t="s">
         <v>184</v>
       </c>
@@ -2677,10 +2688,10 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.94257183873707617</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.89396405660016309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="138" t="s">
         <v>185</v>
       </c>
@@ -2693,10 +2704,10 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-8.8089561760239063E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>-9.2879282549307607E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="138" t="s">
         <v>208</v>
       </c>
@@ -2712,7 +2723,7 @@
         <v>-0.34146787646782939</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="139" t="s">
         <v>187</v>
       </c>
@@ -2725,11 +2736,11 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.0079755593250542E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.1715291379967592E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -2751,923 +2762,923 @@
       </c>
       <c r="H28" s="242"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>180</v>
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.3609912087762994</v>
+        <v>0.9043786095963896</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.4170220249851679</v>
+        <v>2.436892846626201</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9336176199881345</v>
+        <v>1.9495142773009608</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.9336176199881345</v>
+        <v>1.9495142773009608</v>
       </c>
       <c r="H29" s="243"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -3733,20 +3744,20 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="142" t="s">
         <v>211</v>
       </c>
@@ -3761,7 +3772,7 @@
         <v>CNY</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
@@ -3776,7 +3787,7 @@
         <v>0.15820000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="142" t="s">
         <v>175</v>
       </c>
@@ -3791,7 +3802,7 @@
         <v>0.15820000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="141" t="s">
         <v>4</v>
       </c>
@@ -3799,7 +3810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="141" t="s">
         <v>235</v>
       </c>
@@ -3807,7 +3818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="141" t="s">
         <v>236</v>
       </c>
@@ -3815,7 +3826,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="141" t="s">
         <v>237</v>
       </c>
@@ -3823,7 +3834,7 @@
         <v>791575204</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="141" t="s">
         <v>238</v>
       </c>
@@ -3831,7 +3842,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="227" t="s">
         <v>10</v>
       </c>
@@ -3839,7 +3850,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="227" t="s">
         <v>11</v>
       </c>
@@ -3847,7 +3858,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="227" t="s">
         <v>240</v>
       </c>
@@ -3855,7 +3866,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="227" t="s">
         <v>239</v>
       </c>
@@ -3863,7 +3874,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="234" t="s">
         <v>98</v>
       </c>
@@ -3872,7 +3883,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="116" t="s">
         <v>144</v>
       </c>
@@ -3921,7 +3932,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3947,7 +3958,7 @@
       <c r="L19" s="152"/>
       <c r="M19" s="152"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="97" t="s">
         <v>109</v>
       </c>
@@ -3973,7 +3984,7 @@
       <c r="L20" s="153"/>
       <c r="M20" s="153"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
@@ -3999,7 +4010,7 @@
       <c r="L21" s="153"/>
       <c r="M21" s="153"/>
     </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="97" t="s">
         <v>108</v>
       </c>
@@ -4025,7 +4036,7 @@
       <c r="L22" s="153"/>
       <c r="M22" s="153"/>
     </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="97" t="s">
         <v>110</v>
       </c>
@@ -4041,7 +4052,7 @@
       <c r="L23" s="153"/>
       <c r="M23" s="153"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="97" t="s">
         <v>111</v>
       </c>
@@ -4061,7 +4072,7 @@
       <c r="L24" s="153"/>
       <c r="M24" s="153"/>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="97" t="s">
         <v>113</v>
       </c>
@@ -4081,7 +4092,7 @@
       <c r="L25" s="153"/>
       <c r="M25" s="153"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>129</v>
       </c>
@@ -4107,7 +4118,7 @@
       <c r="L26" s="153"/>
       <c r="M26" s="153"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="99" t="s">
         <v>114</v>
       </c>
@@ -4133,7 +4144,7 @@
       <c r="L27" s="153"/>
       <c r="M27" s="153"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -4149,7 +4160,7 @@
       <c r="L28" s="153"/>
       <c r="M28" s="153"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>121</v>
       </c>
@@ -4165,7 +4176,7 @@
       <c r="L29" s="153"/>
       <c r="M29" s="153"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="94" t="s">
         <v>159</v>
       </c>
@@ -4181,7 +4192,7 @@
       <c r="L30" s="153"/>
       <c r="M30" s="153"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -4197,7 +4208,7 @@
       <c r="L31" s="153"/>
       <c r="M31" s="153"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="94" t="s">
         <v>120</v>
       </c>
@@ -4213,7 +4224,7 @@
       <c r="L32" s="153"/>
       <c r="M32" s="153"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -4229,7 +4240,7 @@
       <c r="L33" s="153"/>
       <c r="M33" s="153"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -4245,7 +4256,7 @@
       <c r="L34" s="153"/>
       <c r="M34" s="153"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>148</v>
       </c>
@@ -4261,7 +4272,7 @@
       <c r="L35" s="153"/>
       <c r="M35" s="153"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -4277,7 +4288,7 @@
       <c r="L36" s="153"/>
       <c r="M36" s="153"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>147</v>
       </c>
@@ -4293,7 +4304,7 @@
       <c r="L37" s="153"/>
       <c r="M37" s="153"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="203" t="s">
         <v>33</v>
       </c>
@@ -4307,7 +4318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4319,7 +4330,7 @@
       </c>
       <c r="E40" s="113"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>146</v>
       </c>
@@ -4331,7 +4342,7 @@
       </c>
       <c r="E41" s="113"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
@@ -4344,7 +4355,7 @@
       </c>
       <c r="E42" s="113"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4356,7 +4367,7 @@
       </c>
       <c r="E43" s="113"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4368,7 +4379,7 @@
       </c>
       <c r="E44" s="113"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>170</v>
       </c>
@@ -4381,7 +4392,7 @@
       </c>
       <c r="E45" s="113"/>
     </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>122</v>
       </c>
@@ -4393,7 +4404,7 @@
       </c>
       <c r="E46" s="113"/>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4406,7 +4417,7 @@
       </c>
       <c r="E47" s="113"/>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4421,7 +4432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>124</v>
       </c>
@@ -4435,7 +4446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4448,7 +4459,7 @@
       </c>
       <c r="E50" s="113"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4461,7 +4472,7 @@
       </c>
       <c r="E51" s="113"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4474,7 +4485,7 @@
       </c>
       <c r="E52" s="113"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4487,7 +4498,7 @@
       </c>
       <c r="E53" s="113"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4500,7 +4511,7 @@
       </c>
       <c r="E54" s="113"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>171</v>
       </c>
@@ -4513,7 +4524,7 @@
       </c>
       <c r="E55" s="113"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4525,7 +4536,7 @@
       </c>
       <c r="E56" s="113"/>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4539,7 +4550,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4553,7 +4564,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4568,7 +4579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>123</v>
       </c>
@@ -4581,7 +4592,7 @@
       </c>
       <c r="E60" s="113"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4594,7 +4605,7 @@
       </c>
       <c r="E61" s="113"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4606,7 +4617,7 @@
       </c>
       <c r="E62" s="113"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4619,7 +4630,7 @@
       </c>
       <c r="E63" s="113"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4631,13 +4642,13 @@
       </c>
       <c r="E64" s="113"/>
     </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="201"/>
     </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
@@ -4645,7 +4656,7 @@
         <v>174488</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
@@ -4653,19 +4664,19 @@
         <v>11884</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="121"/>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
@@ -4673,7 +4684,7 @@
         <v>5753095</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
@@ -4681,7 +4692,7 @@
         <v>432202</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
@@ -4689,19 +4700,19 @@
         <v>17265</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C74" s="121"/>
     </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
@@ -4709,7 +4720,7 @@
         <v>638511</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B76" s="73" t="s">
         <v>241</v>
       </c>
@@ -4717,28 +4728,28 @@
         <v>4357429</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4791,7 +4802,7 @@
       <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -4799,7 +4810,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -4807,7 +4818,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -4832,7 +4843,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="104" t="s">
         <v>10</v>
@@ -4861,7 +4872,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="104" t="s">
         <v>11</v>
@@ -4883,7 +4894,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="116" t="s">
         <v>144</v>
@@ -4933,7 +4944,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -4984,7 +4995,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -5035,7 +5046,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>109</v>
@@ -5086,7 +5097,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>105</v>
@@ -5137,7 +5148,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>107</v>
@@ -5188,7 +5199,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="94" t="s">
         <v>100</v>
@@ -5239,7 +5250,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="97" t="s">
         <v>108</v>
@@ -5290,7 +5301,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="98" t="s">
         <v>106</v>
@@ -5341,7 +5352,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="97" t="s">
         <v>110</v>
@@ -5392,7 +5403,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="97" t="s">
         <v>111</v>
@@ -5443,7 +5454,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>113</v>
@@ -5494,7 +5505,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>129</v>
@@ -5545,7 +5556,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="99" t="s">
         <v>114</v>
@@ -5596,7 +5607,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="236" t="s">
         <v>216</v>
@@ -5647,7 +5658,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="236" t="s">
         <v>217</v>
@@ -5698,7 +5709,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="94" t="s">
         <v>115</v>
@@ -5749,7 +5760,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>116</v>
@@ -5800,7 +5811,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>117</v>
@@ -5851,7 +5862,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="102" t="s">
         <v>118</v>
@@ -5902,7 +5913,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="101" t="s">
         <v>138</v>
@@ -5953,7 +5964,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="115" t="s">
         <v>145</v>
@@ -6004,7 +6015,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -6055,7 +6066,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -6106,7 +6117,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>121</v>
@@ -6157,7 +6168,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>159</v>
@@ -6208,7 +6219,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -6259,7 +6270,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>120</v>
@@ -6310,7 +6321,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -6361,7 +6372,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -6412,7 +6423,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -6463,7 +6474,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>148</v>
@@ -6514,7 +6525,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>149</v>
@@ -6565,7 +6576,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>147</v>
@@ -6616,7 +6627,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>151</v>
@@ -6667,7 +6678,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>169</v>
@@ -6718,7 +6729,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -6736,7 +6747,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>99</v>
@@ -6787,7 +6798,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>126</v>
@@ -6838,7 +6849,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>101</v>
@@ -6889,7 +6900,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>112</v>
@@ -6940,7 +6951,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>127</v>
@@ -6991,7 +7002,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>139</v>
@@ -7042,7 +7053,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>130</v>
@@ -7093,7 +7104,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="103" t="s">
         <v>160</v>
@@ -7111,7 +7122,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>157</v>
@@ -7162,7 +7173,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>158</v>
@@ -7213,7 +7224,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="103" t="s">
         <v>131</v>
@@ -7230,7 +7241,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -7280,7 +7291,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>125</v>
@@ -7330,7 +7341,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>128</v>
@@ -7380,7 +7391,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -7430,1260 +7441,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -8727,7 +8738,7 @@
       <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -8735,11 +8746,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -8755,7 +8766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -8779,7 +8790,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -8795,7 +8806,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -8810,18 +8821,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-166284.27569873768</v>
+        <v>-166326.68469751519</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0376479458983716</v>
+        <v>1.0376575475981407</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -8835,7 +8846,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -8858,13 +8869,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -8884,7 +8895,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -8909,7 +8920,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -8937,7 +8948,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
@@ -8965,7 +8976,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -8993,7 +9004,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -9021,7 +9032,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -9048,7 +9059,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>170</v>
       </c>
@@ -9070,7 +9081,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -9092,7 +9103,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -9113,7 +9124,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -9138,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -9165,7 +9176,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -9186,7 +9197,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -9212,7 +9223,7 @@
         <v>5566723</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -9221,7 +9232,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -9243,7 +9254,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -9272,7 +9283,7 @@
         <v>1.046728865071757</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -9305,7 +9316,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -9338,7 +9349,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -9368,7 +9379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -9380,7 +9391,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -9406,7 +9417,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -9433,7 +9444,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -9460,7 +9471,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
@@ -9490,7 +9501,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -9517,7 +9528,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -9543,7 +9554,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -9570,7 +9581,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -9597,7 +9608,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -9618,7 +9629,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -9639,7 +9650,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -9660,7 +9671,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -9681,7 +9692,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -9707,7 +9718,7 @@
         <v>189044</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -9716,7 +9727,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -9735,7 +9746,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -9754,7 +9765,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -9784,7 +9795,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -9814,7 +9825,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -9841,7 +9852,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -9868,20 +9879,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -9898,7 +9909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -9919,7 +9930,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -9928,7 +9939,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>161</v>
       </c>
@@ -9939,7 +9950,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -9954,7 +9965,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -9970,7 +9981,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -9985,7 +9996,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -9994,7 +10005,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>164</v>
       </c>
@@ -10008,7 +10019,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -10029,7 +10040,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>150</v>
       </c>
@@ -10050,7 +10061,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>152</v>
       </c>
@@ -10071,7 +10082,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="122" t="s">
         <v>162</v>
       </c>
@@ -10086,7 +10097,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>153</v>
       </c>
@@ -10107,7 +10118,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -10117,7 +10128,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>165</v>
       </c>
@@ -10131,7 +10142,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>151</v>
       </c>
@@ -10152,7 +10163,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="122" t="s">
         <v>163</v>
       </c>
@@ -10167,7 +10178,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>154</v>
       </c>
@@ -10188,7 +10199,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="107" t="s">
         <v>137</v>
@@ -10210,7 +10221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -10229,7 +10240,7 @@
       <c r="I73" s="255"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -10250,7 +10261,7 @@
       <c r="I74" s="218"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="105" t="s">
         <v>109</v>
       </c>
@@ -10280,7 +10291,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -10301,7 +10312,7 @@
       <c r="I76" s="219"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="105" t="s">
         <v>133</v>
       </c>
@@ -10331,7 +10342,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -10352,7 +10363,7 @@
       <c r="I78" s="219"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="105" t="s">
         <v>129</v>
       </c>
@@ -10382,7 +10393,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -10412,7 +10423,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -10443,7 +10454,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="73" t="s">
         <v>186</v>
       </c>
@@ -10473,7 +10484,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="106" t="s">
         <v>134</v>
       </c>
@@ -10503,7 +10514,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -10524,7 +10535,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="86" t="s">
         <v>176</v>
       </c>
@@ -10554,7 +10565,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>172</v>
       </c>
@@ -10575,28 +10586,28 @@
       <c r="I86" s="218"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>227</v>
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.8089561760239063E-2</v>
+        <v>-9.2879282549307607E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.8089561760239063E-2</v>
+        <v>-9.2879282549307607E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.8089561760239063E-2</v>
+        <v>-9.2879282549307607E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>226</v>
       </c>
@@ -10626,32 +10637,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>245</v>
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0079755593250542E-2</v>
+        <v>3.1715291379967592E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0079755593250542E-2</v>
+        <v>3.1715291379967592E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0079755593250542E-2</v>
+        <v>3.1715291379967592E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="107" t="s">
         <v>166</v>
@@ -10661,7 +10672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>167</v>
       </c>
@@ -10683,7 +10694,7 @@
       <c r="I92" s="254"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Required Return"</f>
         <v>CN Required Return</v>
@@ -10700,24 +10711,24 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-4.0577479176336446</v>
+        <v>-3.952296864702983</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>228</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-4.0577479176336446</v>
+        <v>-3.952296864702983</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C94" s="188">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="147"/>
       <c r="E94" s="87" t="s">
@@ -10725,22 +10736,22 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>2.5481690855407084</v>
+        <v>2.5684630347999806</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>2.5481690855407084</v>
+        <v>2.5684630347999806</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="107" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -10766,73 +10777,73 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2437359.5391375828</v>
+        <v>-2374623.9281698731</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-2.1672656161896207</v>
+        <v>-1.3916387718192751</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-3.0791256810737377</v>
+        <v>-2.9998715424262747</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-3.0791256810737377</v>
+        <v>-2.9998715424262747</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>155</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>63804.534075180687</v>
+        <v>63820.806728720665</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.0604513320733942E-2</v>
+        <v>8.0625070626543616E-2</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="106" t="s">
         <v>156</v>
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-102479.74162355701</v>
+        <v>-102505.87796879451</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-0.14888250954749532</v>
+        <v>-0.14892048041478781</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.12946305178043072</v>
+        <v>-0.12949606992590246</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-2603643.8148363205</v>
+        <v>-2540950.6128673884</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
@@ -10852,11 +10863,11 @@
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>174</v>
       </c>
@@ -10880,37 +10891,37 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1530603.7620001021</v>
+        <v>1543187.1617554207</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.3609912087762994</v>
+        <v>0.9043786095963896</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.9336176199881345</v>
+        <v>1.9495142773009608</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.9336176199881345</v>
+        <v>1.9495142773009608</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>2.4170220249851679</v>
+        <v>2.436892846626201</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>214</v>
       </c>
@@ -10934,36 +10945,36 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>765301.88100005104</v>
+        <v>771593.58087771037</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.68049560438814971</v>
+        <v>0.4521893047981948</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>0.96680880999406726</v>
+        <v>0.97475713865048041</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>0.96680880999406726</v>
+        <v>0.97475713865048041</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.208511012492584</v>
+        <v>1.2184464233131005</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
